--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -8,29 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Classes\CprE381\Projects\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE4BB4E-8462-4D3D-95E1-600A42C160B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACD5883-23B7-4E41-B3CA-5AA9C256DB49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Instruction</t>
   </si>
@@ -197,6 +192,43 @@
       </rPr>
       <t>[the alu will perform an add of A and B]</t>
     </r>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>"011010"</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>subi</t>
+  </si>
+  <si>
+    <t>"000010"</t>
+  </si>
+  <si>
+    <t>"11010"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Don't do any extending]</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -240,13 +272,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,13 +603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,34 +627,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -672,6 +707,74 @@
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -682,5 +785,6 @@
     <mergeCell ref="D1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Classes\CprE381\Projects\cpre-381-projects\Project_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre381\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACD5883-23B7-4E41-B3CA-5AA9C256DB49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CC208-4D85-4BD6-ACAE-1F7C4B0A3E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Instruction</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>RegDst</t>
-  </si>
-  <si>
-    <t>Control Signals</t>
-  </si>
-  <si>
-    <t>Note: these are example control signals from the text and your skeleton code; you will need to add more control signals; you may rename any control signals, except those given in the skeleton code.</t>
-  </si>
-  <si>
-    <t>Note: other signals you may have must be correctly assigned for the add; if you redefined these signals, you probably will need to change the sample values</t>
   </si>
   <si>
     <t>addi</t>
@@ -112,22 +103,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">s_RegWr </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[RegWrite from text]</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">0 </t>
     </r>
     <r>
@@ -194,41 +169,175 @@
     </r>
   </si>
   <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>sllv</t>
+  </si>
+  <si>
+    <t>srlv</t>
+  </si>
+  <si>
+    <t>srav</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
     <t>sub</t>
   </si>
   <si>
-    <t>"011010"</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>subi</t>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>"000000"</t>
+  </si>
+  <si>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"001001"</t>
+  </si>
+  <si>
+    <t>"100001"</t>
   </si>
   <si>
     <t>"000010"</t>
   </si>
   <si>
-    <t>"11010"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Don't do any extending]</t>
-    </r>
-  </si>
-  <si>
-    <t>?</t>
+    <t>"000011"</t>
+  </si>
+  <si>
+    <t>"000111"</t>
+  </si>
+  <si>
+    <t>"000100"</t>
+  </si>
+  <si>
+    <t>"000110"</t>
+  </si>
+  <si>
+    <t>"100010"</t>
+  </si>
+  <si>
+    <t>"101011"</t>
+  </si>
+  <si>
+    <t>"100011"</t>
+  </si>
+  <si>
+    <t>"000101"</t>
+  </si>
+  <si>
+    <t>"001111"</t>
+  </si>
+  <si>
+    <t>"001110"</t>
+  </si>
+  <si>
+    <t>"001101"</t>
+  </si>
+  <si>
+    <t>"001010"</t>
+  </si>
+  <si>
+    <t>"001011"</t>
+  </si>
+  <si>
+    <t>"-"</t>
+  </si>
+  <si>
+    <t>s_RegWr</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>MemRead</t>
+  </si>
+  <si>
+    <t>ALUOp</t>
+  </si>
+  <si>
+    <t>MemWrite</t>
+  </si>
+  <si>
+    <t>0 [does not read from Mem]</t>
+  </si>
+  <si>
+    <t>0 [Data coming from ALU not Mem]</t>
   </si>
 </sst>
 </file>
@@ -272,13 +381,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,178 +709,918 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.875" style="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
+      <c r="H33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -785,6 +1631,5 @@
     <mergeCell ref="D1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre381\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CC208-4D85-4BD6-ACAE-1F7C4B0A3E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF8530-C1D5-46EA-B0AF-0DADEFC69319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>Instruction</t>
   </si>
@@ -338,6 +338,30 @@
   </si>
   <si>
     <t>0 [Data coming from ALU not Mem]</t>
+  </si>
+  <si>
+    <t>"000001"</t>
+  </si>
+  <si>
+    <t>"110000"</t>
+  </si>
+  <si>
+    <t>"011100"</t>
+  </si>
+  <si>
+    <t>"111110"</t>
+  </si>
+  <si>
+    <t>"111101"</t>
+  </si>
+  <si>
+    <t>"111100"</t>
+  </si>
+  <si>
+    <t>1 [comes from imm]</t>
+  </si>
+  <si>
+    <t>"011010"</t>
   </si>
 </sst>
 </file>
@@ -715,7 +739,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -839,6 +863,15 @@
       <c r="L3" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="P3" s="1" t="s">
         <v>9</v>
       </c>
@@ -859,10 +892,22 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1">
@@ -885,11 +930,20 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -911,10 +965,16 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
@@ -937,10 +997,22 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1">
@@ -963,11 +1035,23 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -989,10 +1073,22 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>1</v>
       </c>
       <c r="P9" s="1">
@@ -1015,11 +1111,23 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
@@ -1041,10 +1149,22 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1">
@@ -1067,10 +1187,22 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="1">
@@ -1093,11 +1225,23 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -1119,10 +1263,22 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
@@ -1145,11 +1301,23 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -1171,10 +1339,22 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1">
@@ -1197,11 +1377,23 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
@@ -1223,11 +1415,20 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
@@ -1249,10 +1450,16 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="1">
@@ -1275,10 +1482,22 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="1">
@@ -1301,10 +1520,22 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="1">
@@ -1327,10 +1558,22 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1">
@@ -1353,10 +1596,16 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="1">
@@ -1379,10 +1628,16 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="1">
@@ -1405,10 +1660,16 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="1">
@@ -1431,11 +1692,23 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -1457,10 +1730,22 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="1">
@@ -1483,10 +1768,19 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="1">
@@ -1507,12 +1801,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
         <v>1</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="1">
@@ -1533,12 +1833,18 @@
         <v>0</v>
       </c>
       <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
         <v>1</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1">
@@ -1561,10 +1867,16 @@
       <c r="I31" s="1">
         <v>1</v>
       </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="1">
@@ -1587,10 +1899,16 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
       <c r="K32" s="1">
         <v>0</v>
       </c>
       <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="1">
@@ -1613,10 +1931,16 @@
       <c r="I33" s="1">
         <v>1</v>
       </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
       <c r="K33" s="1">
         <v>0</v>
       </c>
       <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="1">

--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre381\cpre-381-projects\Project_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Classes\CprE381\Projects\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CC208-4D85-4BD6-ACAE-1F7C4B0A3E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7CA74D-A7E1-40E3-B114-DF11E39E6432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -715,7 +715,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre381\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF8530-C1D5-46EA-B0AF-0DADEFC69319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18E430-B43F-434E-B9E6-2D2BB19E626A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
   <si>
     <t>Instruction</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>"011010"</t>
+  </si>
+  <si>
+    <t>"100111"</t>
+  </si>
+  <si>
+    <t>"100110"</t>
+  </si>
+  <si>
+    <t>"100101"</t>
+  </si>
+  <si>
+    <t>"101010"</t>
   </si>
 </sst>
 </file>
@@ -739,7 +751,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -989,7 +1001,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -1141,7 +1153,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1179,7 +1191,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1255,7 +1267,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1331,7 +1343,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>

--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>Instruction</t>
   </si>
@@ -60,6 +60,9 @@
     <t>Shift</t>
   </si>
   <si>
+    <t>UpperImm</t>
+  </si>
+  <si>
     <t>addi</t>
   </si>
   <si>
@@ -70,14 +73,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">0 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
         <i/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>[addi uses rt as destination register rather than rd]</t>
     </r>
@@ -337,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -348,6 +352,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -646,7 +653,9 @@
       <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -661,16 +670,16 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>0.0</v>
@@ -679,30 +688,32 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2">
         <v>0.0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3">
         <v>0.0</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -717,13 +728,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>1.0</v>
@@ -741,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2">
         <v>0.0</v>
@@ -758,7 +769,9 @@
       <c r="N4" s="3">
         <v>0.0</v>
       </c>
-      <c r="O4" s="2"/>
+      <c r="O4" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -773,13 +786,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -797,7 +810,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -814,7 +827,9 @@
       <c r="N5" s="3">
         <v>0.0</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -829,13 +844,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>1.0</v>
@@ -853,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2">
         <v>0.0</v>
@@ -870,7 +885,9 @@
       <c r="N6" s="3">
         <v>0.0</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -885,13 +902,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>1.0</v>
@@ -909,7 +926,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2">
         <v>0.0</v>
@@ -926,7 +943,9 @@
       <c r="N7" s="3">
         <v>0.0</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -941,13 +960,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>0.0</v>
@@ -965,7 +984,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2">
         <v>0.0</v>
@@ -982,7 +1001,9 @@
       <c r="N8" s="3">
         <v>0.0</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -997,13 +1018,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>0.0</v>
@@ -1014,14 +1035,14 @@
       <c r="F9" s="2">
         <v>0.0</v>
       </c>
-      <c r="G9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.0</v>
+      <c r="G9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2">
         <v>0.0</v>
@@ -1038,7 +1059,9 @@
       <c r="N9" s="3">
         <v>0.0</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="3">
+        <v>1.0</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1053,13 +1076,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>0.0</v>
@@ -1070,31 +1093,33 @@
       <c r="F10" s="2">
         <v>0.0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>1.0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>1.0</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J10" s="2">
         <v>0.0</v>
       </c>
-      <c r="K10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="3">
         <v>1.0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="L10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="3">
         <v>1.0</v>
       </c>
       <c r="N10" s="3">
         <v>0.0</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1109,13 +1134,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
         <v>1.0</v>
@@ -1133,7 +1158,7 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2">
         <v>0.0</v>
@@ -1150,7 +1175,9 @@
       <c r="N11" s="3">
         <v>0.0</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1165,13 +1192,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
         <v>1.0</v>
@@ -1189,7 +1216,7 @@
         <v>0.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2">
         <v>0.0</v>
@@ -1206,7 +1233,9 @@
       <c r="N12" s="3">
         <v>0.0</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1221,13 +1250,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>0.0</v>
@@ -1245,7 +1274,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2">
         <v>0.0</v>
@@ -1262,7 +1291,9 @@
       <c r="N13" s="3">
         <v>0.0</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1277,13 +1308,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
         <v>1.0</v>
@@ -1301,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="2">
         <v>0.0</v>
@@ -1318,7 +1349,9 @@
       <c r="N14" s="3">
         <v>0.0</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1333,13 +1366,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
         <v>0.0</v>
@@ -1357,7 +1390,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2">
         <v>0.0</v>
@@ -1374,7 +1407,9 @@
       <c r="N15" s="3">
         <v>0.0</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1389,13 +1424,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2">
         <v>1.0</v>
@@ -1413,7 +1448,7 @@
         <v>0.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16" s="2">
         <v>0.0</v>
@@ -1430,7 +1465,9 @@
       <c r="N16" s="3">
         <v>0.0</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1445,13 +1482,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
         <v>0.0</v>
@@ -1469,7 +1506,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" s="2">
         <v>0.0</v>
@@ -1486,7 +1523,9 @@
       <c r="N17" s="3">
         <v>0.0</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1501,13 +1540,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
         <v>0.0</v>
@@ -1524,8 +1563,8 @@
       <c r="H18" s="2">
         <v>0.0</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>53</v>
+      <c r="I18" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="J18" s="2">
         <v>0.0</v>
@@ -1542,7 +1581,9 @@
       <c r="N18" s="3">
         <v>0.0</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1557,13 +1598,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2">
         <v>1.0</v>
@@ -1580,8 +1621,8 @@
       <c r="H19" s="2">
         <v>0.0</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>53</v>
+      <c r="I19" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="J19" s="2">
         <v>0.0</v>
@@ -1598,7 +1639,9 @@
       <c r="N19" s="3">
         <v>0.0</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1613,13 +1656,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>1.0</v>
@@ -1637,7 +1680,7 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2">
         <v>0.0</v>
@@ -1654,7 +1697,9 @@
       <c r="N20" s="3">
         <v>0.0</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1669,13 +1714,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2">
         <v>1.0</v>
@@ -1693,7 +1738,7 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J21" s="2">
         <v>0.0</v>
@@ -1710,7 +1755,9 @@
       <c r="N21" s="3">
         <v>0.0</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1725,13 +1772,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
         <v>1.0</v>
@@ -1749,7 +1796,7 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2">
         <v>0.0</v>
@@ -1766,7 +1813,9 @@
       <c r="N22" s="3">
         <v>0.0</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1781,13 +1830,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D23" s="2">
         <v>1.0</v>
@@ -1804,8 +1853,8 @@
       <c r="H23" s="2">
         <v>0.0</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>61</v>
+      <c r="I23" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="J23" s="2">
         <v>0.0</v>
@@ -1822,7 +1871,9 @@
       <c r="N23" s="3">
         <v>1.0</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1837,13 +1888,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2">
         <v>1.0</v>
@@ -1860,8 +1911,8 @@
       <c r="H24" s="2">
         <v>0.0</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>63</v>
+      <c r="I24" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="J24" s="2">
         <v>0.0</v>
@@ -1878,7 +1929,9 @@
       <c r="N24" s="3">
         <v>1.0</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1893,13 +1946,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2">
         <v>1.0</v>
@@ -1916,8 +1969,8 @@
       <c r="H25" s="2">
         <v>0.0</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>65</v>
+      <c r="I25" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="J25" s="2">
         <v>0.0</v>
@@ -1934,7 +1987,9 @@
       <c r="N25" s="3">
         <v>1.0</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -1949,13 +2004,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2">
         <v>0.0</v>
@@ -1973,7 +2028,7 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="2">
         <v>1.0</v>
@@ -1990,7 +2045,9 @@
       <c r="N26" s="3">
         <v>0.0</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -2005,13 +2062,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2">
         <v>1.0</v>
@@ -2029,7 +2086,7 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" s="2">
         <v>0.0</v>
@@ -2046,7 +2103,9 @@
       <c r="N27" s="3">
         <v>0.0</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -2061,13 +2120,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2">
         <v>1.0</v>
@@ -2084,8 +2143,8 @@
       <c r="H28" s="2">
         <v>0.0</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>75</v>
+      <c r="I28" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="J28" s="2">
         <v>0.0</v>
@@ -2102,7 +2161,9 @@
       <c r="N28" s="3">
         <v>0.0</v>
       </c>
-      <c r="O28" s="2"/>
+      <c r="O28" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -2117,13 +2178,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2">
         <v>0.0</v>
@@ -2154,7 +2215,9 @@
       <c r="N29" s="3">
         <v>0.0</v>
       </c>
-      <c r="O29" s="2"/>
+      <c r="O29" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -2169,13 +2232,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2">
         <v>0.0</v>
@@ -2206,7 +2269,9 @@
       <c r="N30" s="3">
         <v>0.0</v>
       </c>
-      <c r="O30" s="2"/>
+      <c r="O30" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -2221,16 +2286,16 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2">
         <v>1.0</v>
@@ -2258,7 +2323,9 @@
       <c r="N31" s="3">
         <v>0.0</v>
       </c>
-      <c r="O31" s="2"/>
+      <c r="O31" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -2273,13 +2340,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2">
         <v>1.0</v>
@@ -2310,7 +2377,9 @@
       <c r="N32" s="3">
         <v>0.0</v>
       </c>
-      <c r="O32" s="2"/>
+      <c r="O32" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -2325,16 +2394,16 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2">
         <v>1.0</v>
@@ -2362,7 +2431,9 @@
       <c r="N33" s="3">
         <v>0.0</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="O33" s="3">
+        <v>0.0</v>
+      </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>

--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -54,10 +54,10 @@
     <t>s_RegWr</t>
   </si>
   <si>
-    <t>Sign</t>
+    <t>Shift</t>
   </si>
   <si>
-    <t>Shift</t>
+    <t>Sign</t>
   </si>
   <si>
     <t>UpperImm</t>
@@ -300,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -309,6 +309,11 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -341,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -357,7 +362,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -647,16 +655,15 @@
       <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -705,16 +712,15 @@
       <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.0</v>
       </c>
       <c r="O3" s="3">
         <v>0.0</v>
       </c>
-      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -763,16 +769,15 @@
       <c r="L4" s="2">
         <v>1.0</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>1.0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0.0</v>
+      <c r="N4" s="2">
+        <v>1.0</v>
       </c>
       <c r="O4" s="3">
         <v>0.0</v>
       </c>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -821,16 +826,15 @@
       <c r="L5" s="2">
         <v>1.0</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="M5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="2">
         <v>0.0</v>
       </c>
       <c r="O5" s="3">
         <v>0.0</v>
       </c>
-      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -846,10 +850,10 @@
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2">
@@ -879,16 +883,15 @@
       <c r="L6" s="2">
         <v>1.0</v>
       </c>
-      <c r="M6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="M6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="2">
         <v>0.0</v>
       </c>
       <c r="O6" s="3">
         <v>0.0</v>
       </c>
-      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -937,16 +940,15 @@
       <c r="L7" s="2">
         <v>1.0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>1.0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0.0</v>
+      <c r="N7" s="2">
+        <v>1.0</v>
       </c>
       <c r="O7" s="3">
         <v>0.0</v>
       </c>
-      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -995,16 +997,15 @@
       <c r="L8" s="2">
         <v>1.0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>1.0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0.0</v>
+      <c r="N8" s="2">
+        <v>1.0</v>
       </c>
       <c r="O8" s="3">
         <v>0.0</v>
       </c>
-      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1035,10 +1036,10 @@
       <c r="F9" s="2">
         <v>0.0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>0.0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>0.0</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1053,16 +1054,15 @@
       <c r="L9" s="2">
         <v>1.0</v>
       </c>
-      <c r="M9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.0</v>
+      <c r="M9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1.0</v>
       </c>
       <c r="O9" s="3">
         <v>1.0</v>
       </c>
-      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1093,10 +1093,10 @@
       <c r="F10" s="2">
         <v>0.0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>1.0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>1.0</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1115,12 +1115,11 @@
         <v>1.0</v>
       </c>
       <c r="N10" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O10" s="3">
         <v>0.0</v>
       </c>
-      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1169,16 +1168,15 @@
       <c r="L11" s="2">
         <v>1.0</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>1.0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0.0</v>
+      <c r="N11" s="2">
+        <v>1.0</v>
       </c>
       <c r="O11" s="3">
         <v>0.0</v>
       </c>
-      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1227,16 +1225,15 @@
       <c r="L12" s="2">
         <v>1.0</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <v>1.0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0.0</v>
+      <c r="N12" s="2">
+        <v>1.0</v>
       </c>
       <c r="O12" s="3">
         <v>0.0</v>
       </c>
-      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1285,16 +1282,15 @@
       <c r="L13" s="2">
         <v>1.0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3">
         <v>1.0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0.0</v>
+      <c r="N13" s="2">
+        <v>1.0</v>
       </c>
       <c r="O13" s="3">
         <v>0.0</v>
       </c>
-      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1343,16 +1339,15 @@
       <c r="L14" s="2">
         <v>1.0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>1.0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0.0</v>
+      <c r="N14" s="2">
+        <v>1.0</v>
       </c>
       <c r="O14" s="3">
         <v>0.0</v>
       </c>
-      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1401,16 +1396,15 @@
       <c r="L15" s="2">
         <v>1.0</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <v>1.0</v>
       </c>
-      <c r="N15" s="3">
-        <v>0.0</v>
+      <c r="N15" s="2">
+        <v>1.0</v>
       </c>
       <c r="O15" s="3">
         <v>0.0</v>
       </c>
-      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1459,16 +1453,15 @@
       <c r="L16" s="2">
         <v>1.0</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3">
         <v>1.0</v>
       </c>
-      <c r="N16" s="3">
-        <v>0.0</v>
+      <c r="N16" s="2">
+        <v>1.0</v>
       </c>
       <c r="O16" s="3">
         <v>0.0</v>
       </c>
-      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1517,16 +1510,15 @@
       <c r="L17" s="2">
         <v>1.0</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <v>1.0</v>
       </c>
-      <c r="N17" s="3">
-        <v>0.0</v>
+      <c r="N17" s="2">
+        <v>1.0</v>
       </c>
       <c r="O17" s="3">
         <v>0.0</v>
       </c>
-      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1563,7 +1555,7 @@
       <c r="H18" s="2">
         <v>0.0</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J18" s="2">
@@ -1575,16 +1567,15 @@
       <c r="L18" s="2">
         <v>1.0</v>
       </c>
-      <c r="M18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="M18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="2">
         <v>0.0</v>
       </c>
       <c r="O18" s="3">
         <v>0.0</v>
       </c>
-      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1603,7 +1594,7 @@
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="2">
@@ -1621,7 +1612,7 @@
       <c r="H19" s="2">
         <v>0.0</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="2">
@@ -1633,16 +1624,15 @@
       <c r="L19" s="2">
         <v>1.0</v>
       </c>
-      <c r="M19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="M19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="2">
         <v>0.0</v>
       </c>
       <c r="O19" s="3">
         <v>0.0</v>
       </c>
-      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1691,16 +1681,15 @@
       <c r="L20" s="2">
         <v>1.0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="3">
         <v>1.0</v>
       </c>
-      <c r="N20" s="3">
-        <v>0.0</v>
+      <c r="N20" s="2">
+        <v>1.0</v>
       </c>
       <c r="O20" s="3">
         <v>0.0</v>
       </c>
-      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1749,16 +1738,15 @@
       <c r="L21" s="2">
         <v>1.0</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="3">
         <v>1.0</v>
       </c>
-      <c r="N21" s="3">
-        <v>0.0</v>
+      <c r="N21" s="2">
+        <v>1.0</v>
       </c>
       <c r="O21" s="3">
         <v>0.0</v>
       </c>
-      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1807,16 +1795,15 @@
       <c r="L22" s="2">
         <v>1.0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="3">
         <v>1.0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0.0</v>
+      <c r="N22" s="2">
+        <v>1.0</v>
       </c>
       <c r="O22" s="3">
         <v>0.0</v>
       </c>
-      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1853,7 +1840,7 @@
       <c r="H23" s="2">
         <v>0.0</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J23" s="2">
@@ -1865,16 +1852,15 @@
       <c r="L23" s="2">
         <v>1.0</v>
       </c>
-      <c r="M23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="M23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="2">
         <v>1.0</v>
       </c>
       <c r="O23" s="3">
         <v>0.0</v>
       </c>
-      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1911,7 +1897,7 @@
       <c r="H24" s="2">
         <v>0.0</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="2">
@@ -1923,16 +1909,15 @@
       <c r="L24" s="2">
         <v>1.0</v>
       </c>
-      <c r="M24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="M24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="2">
         <v>1.0</v>
       </c>
       <c r="O24" s="3">
         <v>0.0</v>
       </c>
-      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1969,7 +1954,7 @@
       <c r="H25" s="2">
         <v>0.0</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="6" t="s">
         <v>66</v>
       </c>
       <c r="J25" s="2">
@@ -1981,16 +1966,15 @@
       <c r="L25" s="2">
         <v>1.0</v>
       </c>
-      <c r="M25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="M25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="2">
         <v>1.0</v>
       </c>
       <c r="O25" s="3">
         <v>0.0</v>
       </c>
-      <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -2039,16 +2023,15 @@
       <c r="L26" s="2">
         <v>0.0</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="3">
         <v>1.0</v>
       </c>
-      <c r="N26" s="3">
-        <v>0.0</v>
+      <c r="N26" s="2">
+        <v>1.0</v>
       </c>
       <c r="O26" s="3">
         <v>0.0</v>
       </c>
-      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -2097,16 +2080,15 @@
       <c r="L27" s="2">
         <v>1.0</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="3">
         <v>1.0</v>
       </c>
-      <c r="N27" s="3">
-        <v>0.0</v>
+      <c r="N27" s="2">
+        <v>1.0</v>
       </c>
       <c r="O27" s="3">
         <v>0.0</v>
       </c>
-      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -2125,7 +2107,7 @@
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="2">
@@ -2143,7 +2125,7 @@
       <c r="H28" s="2">
         <v>0.0</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J28" s="2">
@@ -2155,16 +2137,15 @@
       <c r="L28" s="2">
         <v>1.0</v>
       </c>
-      <c r="M28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="M28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="2">
         <v>0.0</v>
       </c>
       <c r="O28" s="3">
         <v>0.0</v>
       </c>
-      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -2209,16 +2190,15 @@
       <c r="L29" s="2">
         <v>0.0</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="3">
         <v>1.0</v>
       </c>
-      <c r="N29" s="3">
-        <v>0.0</v>
+      <c r="N29" s="2">
+        <v>1.0</v>
       </c>
       <c r="O29" s="3">
         <v>0.0</v>
       </c>
-      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -2263,16 +2243,15 @@
       <c r="L30" s="2">
         <v>0.0</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="3">
         <v>1.0</v>
       </c>
-      <c r="N30" s="3">
-        <v>0.0</v>
+      <c r="N30" s="2">
+        <v>1.0</v>
       </c>
       <c r="O30" s="3">
         <v>0.0</v>
       </c>
-      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -2317,16 +2296,15 @@
       <c r="L31" s="2">
         <v>0.0</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="3">
         <v>1.0</v>
       </c>
-      <c r="N31" s="3">
-        <v>0.0</v>
+      <c r="N31" s="2">
+        <v>1.0</v>
       </c>
       <c r="O31" s="3">
         <v>0.0</v>
       </c>
-      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -2371,16 +2349,15 @@
       <c r="L32" s="2">
         <v>1.0</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="3">
         <v>1.0</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O32" s="5">
         <v>0.0</v>
       </c>
-      <c r="O32" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2425,16 +2402,15 @@
       <c r="L33" s="2">
         <v>0.0</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="3">
         <v>1.0</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O33" s="5">
         <v>0.0</v>
       </c>
-      <c r="O33" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>

--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre381\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92755031-C09C-4965-8536-D9614C516A76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBC346A-5832-4982-8DE6-37F35508498F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>Instruction</t>
   </si>
@@ -308,6 +308,9 @@
   <si>
     <t>jr</t>
   </si>
+  <si>
+    <t>"11010"</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +396,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -620,10 +626,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -644,27 +650,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -678,9 +684,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2235,11 +2241,15 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="1"/>
+      <c r="I29" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
       <c r="L29" s="1">
         <v>0</v>
       </c>
@@ -2292,7 +2302,9 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>

--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre381\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBC346A-5832-4982-8DE6-37F35508498F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90554F0A-C58D-4B50-837C-CEA1D480AF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
   <si>
     <t>Instruction</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>"11010"</t>
+  </si>
+  <si>
+    <t>"100100"</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -970,7 +973,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>

--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre381\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90554F0A-C58D-4B50-837C-CEA1D480AF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B7D90-CE47-4ADC-B3FB-C14648BB9C3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>

--- a/Project_B/control_signals_template.xlsx
+++ b/Project_B/control_signals_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre381\cpre-381-projects\Project_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B7D90-CE47-4ADC-B3FB-C14648BB9C3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C31DA09-AFA0-466E-864E-CD1A8E621F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>Instruction</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Shift</t>
-  </si>
-  <si>
-    <t>Sign</t>
   </si>
   <si>
     <t>UpperImm</t>
@@ -124,9 +121,6 @@
       </rPr>
       <t>[addi writes back to a register]</t>
     </r>
-  </si>
-  <si>
-    <t>1[addi is signed]</t>
   </si>
   <si>
     <t>add</t>
@@ -314,6 +308,9 @@
   <si>
     <t>"100100"</t>
   </si>
+  <si>
+    <t>SignExtend</t>
+  </si>
 </sst>
 </file>
 
@@ -384,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +396,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -629,51 +629,51 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="26" width="10.88671875" customWidth="1"/>
+    <col min="13" max="26" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -687,9 +687,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,10 +721,10 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -739,16 +739,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
+      <c r="N3" s="1">
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -796,13 +796,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -889,9 +889,9 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
         <v>0</v>
       </c>
       <c r="O5" s="2">
@@ -910,13 +910,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -946,9 +946,9 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
         <v>0</v>
       </c>
       <c r="O6" s="2">
@@ -967,13 +967,13 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1024,13 +1024,13 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1060,9 +1060,9 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
         <v>1</v>
       </c>
       <c r="O8" s="2">
@@ -1081,13 +1081,13 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>1</v>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1345,9 +1345,9 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
         <v>1</v>
       </c>
       <c r="O13" s="2">
@@ -1366,13 +1366,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1402,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1459,9 +1459,9 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
         <v>1</v>
       </c>
       <c r="O15" s="2">
@@ -1480,13 +1480,13 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -1594,13 +1594,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1630,9 +1630,9 @@
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
         <v>0</v>
       </c>
       <c r="O18" s="2">
@@ -1651,13 +1651,13 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -1687,9 +1687,9 @@
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
         <v>0</v>
       </c>
       <c r="O19" s="2">
@@ -1708,13 +1708,13 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -1744,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -1879,13 +1879,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
         <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -1972,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
         <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
         <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -2050,13 +2050,13 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2200,9 +2200,9 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
         <v>0</v>
       </c>
       <c r="O28" s="2">
@@ -2221,13 +2221,13 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2301,7 +2301,9 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
@@ -2312,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
@@ -2333,16 +2335,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2365,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
-      </c>
-      <c r="N31" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
       </c>
       <c r="O31" s="2">
         <v>0</v>
@@ -2386,13 +2388,13 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -2418,10 +2420,10 @@
         <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
       </c>
       <c r="O32" s="4">
         <v>0</v>
@@ -2439,16 +2441,16 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2471,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
       </c>
       <c r="O33" s="4">
         <v>0</v>
